--- a/branches/alternative2/StructureDefinition-XBMedRequest.xlsx
+++ b/branches/alternative2/StructureDefinition-XBMedRequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:25:15+00:00</t>
+    <t>2022-01-11T09:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
